--- a/biology/Zoologie/Asconoïde/Asconoïde.xlsx
+++ b/biology/Zoologie/Asconoïde/Asconoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ascono%C3%AFde</t>
+          <t>Asconoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’asconoïde est l'une des trois formes corporelles possible chez les éponges. L'expression « éponges de type Ascon » (en référence au genre biologique « modèle » Ascon) est aussi utilisée, mais il ne s'agit que d'un critère anatomique ne correspondant pas à une réalité taxinomique. Le plan asconoïde est caractérisé par des animaux sans forme corporelle définie. Une seule couche de choanocytes tapisse le spongocèle, dans lequel l'eau pénètre directement par les pores inhalants des porocytes. Ce type de plan ne se retrouve que chez les petites éponges, car il est peu efficace : la surface disponible couverte de choanocytes ne peut en effet satisfaire les besoins métaboliques (nutrition, échanges gazeux et excrétion) d'un grand volume de cellules.
 </t>
